--- a/Team-Building/SkillSetAnalysis.xlsx
+++ b/Team-Building/SkillSetAnalysis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAIA\SEM 1\Software Engineering\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -149,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,21 +484,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -517,7 +512,7 @@
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -549,7 +544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,7 +565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,7 +586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,7 +607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -633,7 +628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,7 +660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -683,7 +678,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -701,7 +696,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -719,7 +714,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -729,15 +724,27 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -755,7 +762,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>

--- a/Team-Building/SkillSetAnalysis.xlsx
+++ b/Team-Building/SkillSetAnalysis.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elitebook\Desktop\git tuorial\3D-KORN\Team-Building\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -135,16 +139,16 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>worked with different different programming language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,22 +157,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -191,76 +180,48 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -319,40 +280,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="17.7109375"/>
+    <col min="2" max="2" width="20.5703125"/>
+    <col min="3" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="19.85546875"/>
+    <col min="5" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="28.140625"/>
+    <col min="8" max="8" width="9.42578125"/>
+    <col min="9" max="9" width="14.85546875"/>
+    <col min="10" max="10" width="38"/>
+    <col min="11" max="11" width="8.5703125"/>
+    <col min="12" max="12" width="15.42578125"/>
+    <col min="13" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -401,11 +670,11 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -422,11 +691,11 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -443,11 +712,11 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -457,18 +726,32 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="0" t="s">
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -500,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -518,7 +801,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -536,7 +819,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -554,7 +837,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -584,7 +867,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -602,7 +885,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -622,17 +905,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:I12" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I12">
       <formula1>$L$2:$L$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Team-Building/SkillSetAnalysis.xlsx
+++ b/Team-Building/SkillSetAnalysis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elitebook\Desktop\git tuorial\3D-KORN\Team-Building\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -142,13 +137,33 @@
   </si>
   <si>
     <t>worked with different different programming language</t>
+  </si>
+  <si>
+    <t>2 - Average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - Beginner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - Beginner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 - Good</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worked with OpenCV processing 2D images</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +178,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -590,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,7 +622,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -854,13 +875,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -885,7 +906,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -895,15 +916,30 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I12">
       <formula1>$L$2:$L$5</formula1>
@@ -911,6 +947,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Team-Building/SkillSetAnalysis.xlsx
+++ b/Team-Building/SkillSetAnalysis.xlsx
@@ -611,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Team-Building/SkillSetAnalysis.xlsx
+++ b/Team-Building/SkillSetAnalysis.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luca/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -151,6 +159,12 @@
   </si>
   <si>
     <t>Experience in data science (analysis/treatment/processing/modelling)</t>
+  </si>
+  <si>
+    <t>Have experience with research, could do sketches in documentation</t>
+  </si>
+  <si>
+    <t>Worked in real software building environment and managed a startup of about 12 collegues as co founder</t>
   </si>
 </sst>
 </file>
@@ -227,7 +241,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,12 +317,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -350,12 +367,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -385,12 +402,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -596,28 +613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125"/>
-    <col min="2" max="2" width="20.28515625"/>
-    <col min="3" max="3" width="8.42578125"/>
-    <col min="4" max="4" width="19.5703125"/>
-    <col min="5" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="11.28515625"/>
-    <col min="7" max="7" width="27.85546875"/>
-    <col min="8" max="8" width="9.28515625"/>
-    <col min="9" max="9" width="14.5703125"/>
-    <col min="10" max="10" width="37.5703125"/>
-    <col min="11" max="11" width="8.42578125"/>
-    <col min="12" max="12" width="15.28515625"/>
-    <col min="13" max="1025" width="8.42578125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -659,18 +661,30 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -705,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -726,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -761,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -793,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -811,7 +825,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -843,7 +857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -861,7 +875,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -872,26 +886,28 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -901,15 +917,29 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
